--- a/assets/ebulk/employee-bulk.xlsx
+++ b/assets/ebulk/employee-bulk.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Employee ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E级</t>
-  </si>
-  <si>
-    <t>第五事业部</t>
   </si>
   <si>
     <t>软件中心</t>
@@ -521,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -537,13 +530,12 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="17.5">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="17.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,19 +564,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>31632082</v>
       </c>
@@ -604,24 +593,21 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" s="2">
+        <v>33688</v>
+      </c>
       <c r="L2" s="2">
-        <v>33688</v>
-      </c>
-      <c r="M2" s="2">
         <v>43335</v>
       </c>
     </row>

--- a/assets/ebulk/employee-bulk.xlsx
+++ b/assets/ebulk/employee-bulk.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Employee ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Employee Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,49 +510,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="17.5">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="17.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -564,58 +559,52 @@
       <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>3163208</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>3163208</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="J2" s="2">
+        <v>33688</v>
       </c>
       <c r="K2" s="2">
-        <v>33688</v>
-      </c>
-      <c r="L2" s="2">
         <v>43335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -626,7 +615,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -646,17 +635,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
